--- a/Documentação/animes-psicologia.xlsx
+++ b/Documentação/animes-psicologia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xanda\OneDrive\Área de Trabalho\SPTECH\Projeto Individual\projeto_individual_primeiro_semestre\Documentação\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18E3D183-362B-490D-ADAE-6DC18469A18F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC939DFA-188E-4137-8C4A-2369DAECF223}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -451,13 +451,13 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -465,6 +465,144 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="13">
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF000000"/>
@@ -490,11 +628,14 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border outline="0">
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <left style="thin">
           <color rgb="FF000000"/>
         </left>
@@ -514,16 +655,9 @@
         <color rgb="FF000000"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="thin">
           <color rgb="FF000000"/>
         </bottom>
@@ -549,140 +683,6 @@
         </right>
         <top/>
         <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
       </border>
     </dxf>
   </dxfs>
@@ -944,7 +944,7 @@
                   <c:v>190</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>169</c:v>
+                  <c:v>148</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1281,13 +1281,13 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="5"/>
                       <c:pt idx="0">
-                        <c:v>113</c:v>
+                        <c:v>134</c:v>
                       </c:pt>
                       <c:pt idx="1">
                         <c:v>92</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>21</c:v>
+                        <c:v>42</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2071,20 +2071,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="A1:H31" totalsRowShown="0" headerRowDxfId="3" dataDxfId="4" headerRowBorderDxfId="12" tableBorderDxfId="11" totalsRowBorderDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="A1:H31" totalsRowShown="0" headerRowDxfId="12" dataDxfId="10" headerRowBorderDxfId="11" tableBorderDxfId="9" totalsRowBorderDxfId="8">
   <autoFilter ref="A1:H31" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:H30">
     <sortCondition ref="G1:G30"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Item" dataDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Requisito" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Classificação" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Tamanho" dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Tam (#)" dataDxfId="8"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Prioridade" dataDxfId="7"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="SPRINT" dataDxfId="6"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Membro" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Item" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Requisito" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Classificação" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Tamanho" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Tam (#)" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Prioridade" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="SPRINT" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Membro" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2410,7 +2410,7 @@
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2514,7 +2514,7 @@
       </c>
       <c r="N2" s="1">
         <f>SUM(N3,N4,N5,N6)</f>
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="O2" s="7">
         <v>298</v>
@@ -2524,7 +2524,7 @@
       </c>
       <c r="Q2" s="6">
         <f>SUM(Q3,Q4,Q5,Q6)</f>
-        <v>65</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -2614,7 +2614,7 @@
         <v>118</v>
       </c>
       <c r="N4" s="1">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="O4" s="7">
         <f>O3-M4</f>
@@ -2622,11 +2622,11 @@
       </c>
       <c r="P4" s="6">
         <f>P3-N4</f>
-        <v>169</v>
+        <v>148</v>
       </c>
       <c r="Q4" s="6">
         <f>P4-O4</f>
-        <v>81</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -2848,28 +2848,28 @@
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="9">
+      <c r="A12" s="16">
         <v>11</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="10">
+      <c r="E12" s="17">
         <v>21</v>
       </c>
-      <c r="F12" s="10">
+      <c r="F12" s="17">
         <v>2</v>
       </c>
-      <c r="G12" s="10" t="s">
+      <c r="G12" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="H12" s="11" t="s">
+      <c r="H12" s="18" t="s">
         <v>53</v>
       </c>
     </row>

--- a/Documentação/animes-psicologia.xlsx
+++ b/Documentação/animes-psicologia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xanda\OneDrive\Área de Trabalho\SPTECH\Projeto Individual\projeto_individual_primeiro_semestre\Documentação\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC939DFA-188E-4137-8C4A-2369DAECF223}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E2D2A18-13CA-437A-BA16-9655FBB75898}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -944,7 +944,7 @@
                   <c:v>190</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>148</c:v>
+                  <c:v>127</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1281,13 +1281,13 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="5"/>
                       <c:pt idx="0">
-                        <c:v>134</c:v>
+                        <c:v>155</c:v>
                       </c:pt>
                       <c:pt idx="1">
                         <c:v>92</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>42</c:v>
+                        <c:v>63</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2410,7 +2410,7 @@
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2514,7 +2514,7 @@
       </c>
       <c r="N2" s="1">
         <f>SUM(N3,N4,N5,N6)</f>
-        <v>134</v>
+        <v>155</v>
       </c>
       <c r="O2" s="7">
         <v>298</v>
@@ -2524,7 +2524,7 @@
       </c>
       <c r="Q2" s="6">
         <f>SUM(Q3,Q4,Q5,Q6)</f>
-        <v>44</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -2614,7 +2614,7 @@
         <v>118</v>
       </c>
       <c r="N4" s="1">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="O4" s="7">
         <f>O3-M4</f>
@@ -2622,11 +2622,11 @@
       </c>
       <c r="P4" s="6">
         <f>P3-N4</f>
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="Q4" s="6">
         <f>P4-O4</f>
-        <v>60</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -2900,28 +2900,28 @@
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="9">
+      <c r="A14" s="16">
         <v>13</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="10">
+      <c r="E14" s="17">
         <v>21</v>
       </c>
-      <c r="F14" s="10">
+      <c r="F14" s="17">
         <v>2</v>
       </c>
-      <c r="G14" s="10" t="s">
+      <c r="G14" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="H14" s="11" t="s">
+      <c r="H14" s="18" t="s">
         <v>53</v>
       </c>
     </row>

--- a/Documentação/animes-psicologia.xlsx
+++ b/Documentação/animes-psicologia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xanda\OneDrive\Área de Trabalho\SPTECH\Projeto Individual\projeto_individual_primeiro_semestre\Documentação\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E2D2A18-13CA-437A-BA16-9655FBB75898}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99A6C9FB-2068-4E16-A238-1DDC8F4D57BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1057,7 +1057,7 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="5"/>
                       <c:pt idx="0">
-                        <c:v>385</c:v>
+                        <c:v>393</c:v>
                       </c:pt>
                       <c:pt idx="1">
                         <c:v>92</c:v>
@@ -1069,7 +1069,7 @@
                         <c:v>60</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>115</c:v>
+                        <c:v>123</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -1281,13 +1281,19 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="5"/>
                       <c:pt idx="0">
-                        <c:v>155</c:v>
+                        <c:v>189</c:v>
                       </c:pt>
                       <c:pt idx="1">
                         <c:v>92</c:v>
                       </c:pt>
                       <c:pt idx="2">
                         <c:v>63</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>13</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>21</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2410,7 +2416,7 @@
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2507,14 +2513,14 @@
       </c>
       <c r="L2" s="1">
         <f>SUM(L3,L4,L5,L6)</f>
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="M2" s="1">
         <v>393</v>
       </c>
       <c r="N2" s="1">
         <f>SUM(N3,N4,N5,N6)</f>
-        <v>155</v>
+        <v>189</v>
       </c>
       <c r="O2" s="7">
         <v>298</v>
@@ -2664,7 +2670,9 @@
       <c r="M5" s="3">
         <v>60</v>
       </c>
-      <c r="N5" s="3"/>
+      <c r="N5" s="3">
+        <v>13</v>
+      </c>
       <c r="O5" s="2">
         <f>O4-M5</f>
         <v>28</v>
@@ -2702,12 +2710,14 @@
       </c>
       <c r="L6" s="6">
         <f>SUM(E24:E31)</f>
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="M6" s="6">
         <v>115</v>
       </c>
-      <c r="N6" s="6"/>
+      <c r="N6" s="6">
+        <v>21</v>
+      </c>
       <c r="O6" s="8">
         <f>O5-M6</f>
         <v>-87</v>
@@ -3108,54 +3118,54 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="9">
+      <c r="A22" s="16">
         <v>21</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D22" s="10" t="s">
+      <c r="D22" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E22" s="10">
+      <c r="E22" s="17">
         <v>5</v>
       </c>
-      <c r="F22" s="10">
+      <c r="F22" s="17">
         <v>3</v>
       </c>
-      <c r="G22" s="10" t="s">
+      <c r="G22" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="H22" s="11" t="s">
+      <c r="H22" s="18" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="9">
+      <c r="A23" s="16">
         <v>22</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D23" s="10" t="s">
+      <c r="D23" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E23" s="10">
+      <c r="E23" s="17">
         <v>8</v>
       </c>
-      <c r="F23" s="10">
+      <c r="F23" s="17">
         <v>3</v>
       </c>
-      <c r="G23" s="10" t="s">
+      <c r="G23" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="H23" s="11" t="s">
+      <c r="H23" s="18" t="s">
         <v>53</v>
       </c>
     </row>
@@ -3290,28 +3300,28 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="9">
+      <c r="A29" s="16">
         <v>29</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="B29" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="C29" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D29" s="10" t="s">
+      <c r="D29" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="E29" s="10">
-        <v>13</v>
-      </c>
-      <c r="F29" s="10">
+      <c r="E29" s="17">
+        <v>21</v>
+      </c>
+      <c r="F29" s="17">
         <v>2</v>
       </c>
-      <c r="G29" s="10" t="s">
+      <c r="G29" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="H29" s="11" t="s">
+      <c r="H29" s="18" t="s">
         <v>53</v>
       </c>
     </row>

--- a/Documentação/animes-psicologia.xlsx
+++ b/Documentação/animes-psicologia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xanda\OneDrive\Área de Trabalho\SPTECH\Projeto Individual\projeto_individual_primeiro_semestre\Documentação\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99A6C9FB-2068-4E16-A238-1DDC8F4D57BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E33CACB-0192-46C5-A6B7-AB0FADD4EAE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -858,7 +858,7 @@
                   <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-87</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -944,7 +944,7 @@
                   <c:v>190</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>127</c:v>
+                  <c:v>101</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1281,19 +1281,13 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="5"/>
                       <c:pt idx="0">
-                        <c:v>189</c:v>
+                        <c:v>181</c:v>
                       </c:pt>
                       <c:pt idx="1">
                         <c:v>92</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>63</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>13</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>21</c:v>
+                        <c:v>89</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2416,7 +2410,7 @@
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+      <selection activeCell="N32" sqref="N32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2520,7 +2514,7 @@
       </c>
       <c r="N2" s="1">
         <f>SUM(N3,N4,N5,N6)</f>
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="O2" s="7">
         <v>298</v>
@@ -2530,7 +2524,7 @@
       </c>
       <c r="Q2" s="6">
         <f>SUM(Q3,Q4,Q5,Q6)</f>
-        <v>23</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -2620,7 +2614,7 @@
         <v>118</v>
       </c>
       <c r="N4" s="1">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="O4" s="7">
         <f>O3-M4</f>
@@ -2628,11 +2622,11 @@
       </c>
       <c r="P4" s="6">
         <f>P3-N4</f>
-        <v>127</v>
+        <v>101</v>
       </c>
       <c r="Q4" s="6">
         <f>P4-O4</f>
-        <v>39</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -2670,9 +2664,7 @@
       <c r="M5" s="3">
         <v>60</v>
       </c>
-      <c r="N5" s="3">
-        <v>13</v>
-      </c>
+      <c r="N5" s="3"/>
       <c r="O5" s="2">
         <f>O4-M5</f>
         <v>28</v>
@@ -2715,12 +2707,9 @@
       <c r="M6" s="6">
         <v>115</v>
       </c>
-      <c r="N6" s="6">
-        <v>21</v>
-      </c>
+      <c r="N6" s="6"/>
       <c r="O6" s="8">
-        <f>O5-M6</f>
-        <v>-87</v>
+        <v>0</v>
       </c>
       <c r="P6" s="6"/>
       <c r="Q6" s="6"/>
@@ -2806,54 +2795,54 @@
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="9">
+      <c r="A10" s="16">
         <v>9</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="17">
         <v>13</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F10" s="17">
         <v>2</v>
       </c>
-      <c r="G10" s="10" t="s">
+      <c r="G10" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="H10" s="11" t="s">
+      <c r="H10" s="18" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="9">
+      <c r="A11" s="16">
         <v>10</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E11" s="17">
         <v>13</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F11" s="17">
         <v>2</v>
       </c>
-      <c r="G11" s="10" t="s">
+      <c r="G11" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="H11" s="11" t="s">
+      <c r="H11" s="18" t="s">
         <v>53</v>
       </c>
     </row>
@@ -3118,54 +3107,54 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="16">
+      <c r="A22" s="9">
         <v>21</v>
       </c>
-      <c r="B22" s="17" t="s">
+      <c r="B22" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="17" t="s">
+      <c r="C22" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D22" s="17" t="s">
+      <c r="D22" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E22" s="17">
+      <c r="E22" s="10">
         <v>5</v>
       </c>
-      <c r="F22" s="17">
+      <c r="F22" s="10">
         <v>3</v>
       </c>
-      <c r="G22" s="17" t="s">
+      <c r="G22" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="H22" s="18" t="s">
+      <c r="H22" s="11" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="16">
+      <c r="A23" s="9">
         <v>22</v>
       </c>
-      <c r="B23" s="17" t="s">
+      <c r="B23" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C23" s="17" t="s">
+      <c r="C23" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D23" s="17" t="s">
+      <c r="D23" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E23" s="17">
+      <c r="E23" s="10">
         <v>8</v>
       </c>
-      <c r="F23" s="17">
+      <c r="F23" s="10">
         <v>3</v>
       </c>
-      <c r="G23" s="17" t="s">
+      <c r="G23" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="H23" s="18" t="s">
+      <c r="H23" s="11" t="s">
         <v>53</v>
       </c>
     </row>
@@ -3300,28 +3289,28 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="16">
+      <c r="A29" s="9">
         <v>29</v>
       </c>
-      <c r="B29" s="17" t="s">
+      <c r="B29" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C29" s="17" t="s">
+      <c r="C29" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D29" s="17" t="s">
+      <c r="D29" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="E29" s="17">
+      <c r="E29" s="10">
         <v>21</v>
       </c>
-      <c r="F29" s="17">
+      <c r="F29" s="10">
         <v>2</v>
       </c>
-      <c r="G29" s="17" t="s">
+      <c r="G29" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="H29" s="18" t="s">
+      <c r="H29" s="11" t="s">
         <v>53</v>
       </c>
     </row>

--- a/Documentação/animes-psicologia.xlsx
+++ b/Documentação/animes-psicologia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xanda\OneDrive\Área de Trabalho\SPTECH\Projeto Individual\projeto_individual_primeiro_semestre\Documentação\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E33CACB-0192-46C5-A6B7-AB0FADD4EAE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2364CBBE-12AE-4585-A207-CCDF5D8CEADC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -421,9 +421,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -459,6 +456,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1181,7 +1181,7 @@
                         <c:v>60</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>115</c:v>
+                        <c:v>123</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -1281,13 +1281,19 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="5"/>
                       <c:pt idx="0">
-                        <c:v>181</c:v>
+                        <c:v>364</c:v>
                       </c:pt>
                       <c:pt idx="1">
                         <c:v>92</c:v>
                       </c:pt>
                       <c:pt idx="2">
                         <c:v>89</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>60</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>123</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2410,7 +2416,7 @@
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N32" sqref="N32"/>
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2434,75 +2440,75 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="22" t="s">
+      <c r="L1" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="22" t="s">
+      <c r="M1" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="22" t="s">
+      <c r="N1" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="23" t="s">
+      <c r="O1" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="24" t="s">
+      <c r="P1" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="24" t="s">
+      <c r="Q1" s="23" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="16">
+      <c r="A2" s="15">
         <v>1</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="17">
+      <c r="E2" s="16">
         <v>5</v>
       </c>
-      <c r="F2" s="17">
+      <c r="F2" s="16">
         <v>2</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="G2" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="H2" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="K2" s="19" t="s">
+      <c r="K2" s="18" t="s">
         <v>18</v>
       </c>
       <c r="L2" s="1">
@@ -2514,7 +2520,7 @@
       </c>
       <c r="N2" s="1">
         <f>SUM(N3,N4,N5,N6)</f>
-        <v>181</v>
+        <v>364</v>
       </c>
       <c r="O2" s="7">
         <v>298</v>
@@ -2528,31 +2534,31 @@
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="16">
+      <c r="A3" s="15">
         <v>2</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="17">
+      <c r="E3" s="16">
         <v>3</v>
       </c>
-      <c r="F3" s="17">
+      <c r="F3" s="16">
         <v>2</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="G3" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="18" t="s">
+      <c r="H3" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="K3" s="19" t="s">
+      <c r="K3" s="18" t="s">
         <v>17</v>
       </c>
       <c r="L3" s="1">
@@ -2579,31 +2585,31 @@
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="16">
+      <c r="A4" s="15">
         <v>3</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="17">
+      <c r="E4" s="16">
         <v>21</v>
       </c>
-      <c r="F4" s="17">
+      <c r="F4" s="16">
         <v>1</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="18" t="s">
+      <c r="H4" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="K4" s="19" t="s">
+      <c r="K4" s="18" t="s">
         <v>23</v>
       </c>
       <c r="L4" s="1">
@@ -2630,31 +2636,31 @@
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="16">
+      <c r="A5" s="15">
         <v>4</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="17">
+      <c r="E5" s="16">
         <v>13</v>
       </c>
-      <c r="F5" s="17">
+      <c r="F5" s="16">
         <v>1</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="G5" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="18" t="s">
+      <c r="H5" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="K5" s="20" t="s">
+      <c r="K5" s="19" t="s">
         <v>26</v>
       </c>
       <c r="L5" s="3">
@@ -2664,7 +2670,9 @@
       <c r="M5" s="3">
         <v>60</v>
       </c>
-      <c r="N5" s="3"/>
+      <c r="N5" s="3">
+        <v>60</v>
+      </c>
       <c r="O5" s="2">
         <f>O4-M5</f>
         <v>28</v>
@@ -2673,31 +2681,31 @@
       <c r="Q5" s="6"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="16">
+      <c r="A6" s="15">
         <v>5</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="17">
+      <c r="E6" s="16">
         <v>8</v>
       </c>
-      <c r="F6" s="17">
+      <c r="F6" s="16">
         <v>1</v>
       </c>
-      <c r="G6" s="17" t="s">
+      <c r="G6" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="18" t="s">
+      <c r="H6" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="K6" s="21" t="s">
+      <c r="K6" s="20" t="s">
         <v>28</v>
       </c>
       <c r="L6" s="6">
@@ -2705,9 +2713,11 @@
         <v>123</v>
       </c>
       <c r="M6" s="6">
-        <v>115</v>
-      </c>
-      <c r="N6" s="6"/>
+        <v>123</v>
+      </c>
+      <c r="N6" s="6">
+        <v>123</v>
+      </c>
       <c r="O6" s="8">
         <v>0</v>
       </c>
@@ -2715,212 +2725,212 @@
       <c r="Q6" s="6"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="16">
+      <c r="A7" s="15">
         <v>6</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="17">
+      <c r="E7" s="16">
         <v>8</v>
       </c>
-      <c r="F7" s="17">
+      <c r="F7" s="16">
         <v>1</v>
       </c>
-      <c r="G7" s="17" t="s">
+      <c r="G7" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="18" t="s">
+      <c r="H7" s="17" t="s">
         <v>53</v>
       </c>
       <c r="K7" s="4"/>
       <c r="O7" s="5"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="16">
+      <c r="A8" s="15">
         <v>7</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="17">
+      <c r="E8" s="16">
         <v>13</v>
       </c>
-      <c r="F8" s="17">
+      <c r="F8" s="16">
         <v>1</v>
       </c>
-      <c r="G8" s="17" t="s">
+      <c r="G8" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="18" t="s">
+      <c r="H8" s="17" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="16">
+      <c r="A9" s="15">
         <v>8</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="E9" s="17">
+      <c r="E9" s="16">
         <v>21</v>
       </c>
-      <c r="F9" s="17">
+      <c r="F9" s="16">
         <v>1</v>
       </c>
-      <c r="G9" s="17" t="s">
+      <c r="G9" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="18" t="s">
+      <c r="H9" s="17" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="16">
+      <c r="A10" s="15">
         <v>9</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="17">
+      <c r="E10" s="16">
         <v>13</v>
       </c>
-      <c r="F10" s="17">
+      <c r="F10" s="16">
         <v>2</v>
       </c>
-      <c r="G10" s="17" t="s">
+      <c r="G10" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="H10" s="18" t="s">
+      <c r="H10" s="17" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="16">
+      <c r="A11" s="15">
         <v>10</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="17">
+      <c r="E11" s="16">
         <v>13</v>
       </c>
-      <c r="F11" s="17">
+      <c r="F11" s="16">
         <v>2</v>
       </c>
-      <c r="G11" s="17" t="s">
+      <c r="G11" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="H11" s="18" t="s">
+      <c r="H11" s="17" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="16">
+      <c r="A12" s="15">
         <v>11</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="17">
+      <c r="E12" s="16">
         <v>21</v>
       </c>
-      <c r="F12" s="17">
+      <c r="F12" s="16">
         <v>2</v>
       </c>
-      <c r="G12" s="17" t="s">
+      <c r="G12" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="H12" s="18" t="s">
+      <c r="H12" s="17" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="16">
+      <c r="A13" s="15">
         <v>12</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="D13" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="17">
+      <c r="E13" s="16">
         <v>21</v>
       </c>
-      <c r="F13" s="17">
+      <c r="F13" s="16">
         <v>2</v>
       </c>
-      <c r="G13" s="17" t="s">
+      <c r="G13" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="H13" s="18" t="s">
+      <c r="H13" s="17" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="16">
+      <c r="A14" s="15">
         <v>13</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="D14" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="17">
+      <c r="E14" s="16">
         <v>21</v>
       </c>
-      <c r="F14" s="17">
+      <c r="F14" s="16">
         <v>2</v>
       </c>
-      <c r="G14" s="17" t="s">
+      <c r="G14" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="H14" s="18" t="s">
+      <c r="H14" s="17" t="s">
         <v>53</v>
       </c>
     </row>
@@ -3029,340 +3039,340 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="9">
+      <c r="A19" s="15">
         <v>18</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D19" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="E19" s="10">
+      <c r="E19" s="16">
         <v>21</v>
       </c>
-      <c r="F19" s="10">
+      <c r="F19" s="16">
         <v>2</v>
       </c>
-      <c r="G19" s="10" t="s">
+      <c r="G19" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="H19" s="11" t="s">
+      <c r="H19" s="17" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="9">
+      <c r="A20" s="15">
         <v>19</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="D20" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="E20" s="10">
+      <c r="E20" s="16">
         <v>13</v>
       </c>
-      <c r="F20" s="10">
+      <c r="F20" s="16">
         <v>2</v>
       </c>
-      <c r="G20" s="10" t="s">
+      <c r="G20" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="H20" s="11" t="s">
+      <c r="H20" s="17" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="9">
+      <c r="A21" s="15">
         <v>20</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="D21" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="E21" s="10">
+      <c r="E21" s="16">
         <v>13</v>
       </c>
-      <c r="F21" s="10">
+      <c r="F21" s="16">
         <v>3</v>
       </c>
-      <c r="G21" s="10" t="s">
+      <c r="G21" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="H21" s="11" t="s">
+      <c r="H21" s="17" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="9">
+      <c r="A22" s="15">
         <v>21</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D22" s="10" t="s">
+      <c r="D22" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="E22" s="10">
+      <c r="E22" s="16">
         <v>5</v>
       </c>
-      <c r="F22" s="10">
+      <c r="F22" s="16">
         <v>3</v>
       </c>
-      <c r="G22" s="10" t="s">
+      <c r="G22" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="H22" s="11" t="s">
+      <c r="H22" s="17" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="9">
+      <c r="A23" s="15">
         <v>22</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D23" s="10" t="s">
+      <c r="D23" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="E23" s="10">
+      <c r="E23" s="16">
         <v>8</v>
       </c>
-      <c r="F23" s="10">
+      <c r="F23" s="16">
         <v>3</v>
       </c>
-      <c r="G23" s="10" t="s">
+      <c r="G23" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="H23" s="11" t="s">
+      <c r="H23" s="17" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="9">
+      <c r="A24" s="15">
         <v>23</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C24" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D24" s="10" t="s">
+      <c r="D24" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="E24" s="10">
+      <c r="E24" s="16">
         <v>13</v>
       </c>
-      <c r="F24" s="10">
+      <c r="F24" s="16">
         <v>2</v>
       </c>
-      <c r="G24" s="10" t="s">
+      <c r="G24" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="H24" s="11" t="s">
+      <c r="H24" s="17" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="9">
+      <c r="A25" s="15">
         <v>24</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C25" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D25" s="10" t="s">
+      <c r="D25" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="E25" s="10">
+      <c r="E25" s="16">
         <v>13</v>
       </c>
-      <c r="F25" s="10">
+      <c r="F25" s="16">
         <v>1</v>
       </c>
-      <c r="G25" s="10" t="s">
+      <c r="G25" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="H25" s="11" t="s">
+      <c r="H25" s="17" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="9">
+      <c r="A26" s="15">
         <v>25</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C26" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D26" s="10" t="s">
+      <c r="D26" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="E26" s="10">
+      <c r="E26" s="16">
         <v>21</v>
       </c>
-      <c r="F26" s="10">
+      <c r="F26" s="16">
         <v>2</v>
       </c>
-      <c r="G26" s="10" t="s">
+      <c r="G26" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="H26" s="11" t="s">
+      <c r="H26" s="17" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="9">
+      <c r="A27" s="15">
         <v>26</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="C27" s="12" t="s">
+      <c r="C27" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="D27" s="12" t="s">
+      <c r="D27" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="E27" s="12">
+      <c r="E27" s="24">
         <v>13</v>
       </c>
-      <c r="F27" s="12">
+      <c r="F27" s="24">
         <v>1</v>
       </c>
-      <c r="G27" s="12" t="s">
+      <c r="G27" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="H27" s="11" t="s">
+      <c r="H27" s="17" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="9">
+      <c r="A28" s="15">
         <v>28</v>
       </c>
-      <c r="B28" s="12" t="s">
+      <c r="B28" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C28" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D28" s="10" t="s">
+      <c r="D28" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="E28" s="10">
+      <c r="E28" s="16">
         <v>8</v>
       </c>
-      <c r="F28" s="10">
+      <c r="F28" s="16">
         <v>3</v>
       </c>
-      <c r="G28" s="10" t="s">
+      <c r="G28" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="H28" s="11" t="s">
+      <c r="H28" s="17" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="9">
+      <c r="A29" s="15">
         <v>29</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="B29" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="C29" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D29" s="10" t="s">
+      <c r="D29" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="E29" s="10">
+      <c r="E29" s="16">
         <v>21</v>
       </c>
-      <c r="F29" s="10">
+      <c r="F29" s="16">
         <v>2</v>
       </c>
-      <c r="G29" s="10" t="s">
+      <c r="G29" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="H29" s="11" t="s">
+      <c r="H29" s="17" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="9">
+      <c r="A30" s="15">
         <v>30</v>
       </c>
-      <c r="B30" s="12" t="s">
+      <c r="B30" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="C30" s="12" t="s">
+      <c r="C30" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D30" s="12" t="s">
+      <c r="D30" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="E30" s="12">
+      <c r="E30" s="24">
         <v>13</v>
       </c>
-      <c r="F30" s="12">
+      <c r="F30" s="24">
         <v>2</v>
       </c>
-      <c r="G30" s="12" t="s">
+      <c r="G30" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="H30" s="11" t="s">
+      <c r="H30" s="17" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="9">
+      <c r="A31" s="15">
         <v>31</v>
       </c>
-      <c r="B31" s="12" t="s">
+      <c r="B31" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="C31" s="12" t="s">
+      <c r="C31" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D31" s="12" t="s">
+      <c r="D31" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="E31" s="12">
+      <c r="E31" s="24">
         <v>21</v>
       </c>
-      <c r="F31" s="12">
+      <c r="F31" s="24">
         <v>2</v>
       </c>
-      <c r="G31" s="12" t="s">
+      <c r="G31" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="H31" s="11" t="s">
+      <c r="H31" s="17" t="s">
         <v>53</v>
       </c>
     </row>

--- a/Documentação/animes-psicologia.xlsx
+++ b/Documentação/animes-psicologia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xanda\OneDrive\Área de Trabalho\SPTECH\Projeto Individual\projeto_individual_primeiro_semestre\Documentação\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2364CBBE-12AE-4585-A207-CCDF5D8CEADC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65490D14-55B3-4E98-AC36-8C1220749F52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="63">
   <si>
     <t>Item</t>
   </si>
@@ -77,9 +77,6 @@
     <t>Restante</t>
   </si>
   <si>
-    <t>Pendentes</t>
-  </si>
-  <si>
     <t>Configurar projeto no GitHub</t>
   </si>
   <si>
@@ -210,6 +207,24 @@
   </si>
   <si>
     <t>Acessar banco de dados da VM</t>
+  </si>
+  <si>
+    <t>Sprint 5</t>
+  </si>
+  <si>
+    <t>Sprint 6</t>
+  </si>
+  <si>
+    <t>Sprint 7</t>
+  </si>
+  <si>
+    <t>Sprint 8</t>
+  </si>
+  <si>
+    <t>Sprint 9</t>
+  </si>
+  <si>
+    <t>Sprint 10</t>
   </si>
 </sst>
 </file>
@@ -415,9 +430,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -460,6 +472,9 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -636,6 +651,13 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <left style="thin">
           <color rgb="FF000000"/>
         </left>
@@ -655,13 +677,6 @@
         <color rgb="FF000000"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -944,7 +959,13 @@
                   <c:v>190</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>101</c:v>
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1281,13 +1302,13 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="5"/>
                       <c:pt idx="0">
-                        <c:v>364</c:v>
+                        <c:v>393</c:v>
                       </c:pt>
                       <c:pt idx="1">
                         <c:v>92</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>89</c:v>
+                        <c:v>118</c:v>
                       </c:pt>
                       <c:pt idx="3">
                         <c:v>60</c:v>
@@ -2077,8 +2098,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="A1:H31" totalsRowShown="0" headerRowDxfId="12" dataDxfId="10" headerRowBorderDxfId="11" tableBorderDxfId="9" totalsRowBorderDxfId="8">
-  <autoFilter ref="A1:H31" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="A1:H37" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11" headerRowBorderDxfId="9" tableBorderDxfId="10" totalsRowBorderDxfId="8">
+  <autoFilter ref="A1:H37" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:H30">
     <sortCondition ref="G1:G30"/>
   </sortState>
@@ -2413,10 +2434,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q31"/>
+  <dimension ref="A1:P37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2439,77 +2460,74 @@
     <col min="18" max="18" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="21" t="s">
+      <c r="L1" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="21" t="s">
+      <c r="M1" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="21" t="s">
+      <c r="N1" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="22" t="s">
+      <c r="O1" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="23" t="s">
+      <c r="P1" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="23" t="s">
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="14">
+        <v>1</v>
+      </c>
+      <c r="B2" s="15" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="15">
-        <v>1</v>
-      </c>
-      <c r="B2" s="16" t="s">
+      <c r="C2" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="D2" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="E2" s="15">
+        <v>5</v>
+      </c>
+      <c r="F2" s="15">
+        <v>2</v>
+      </c>
+      <c r="G2" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="16">
-        <v>5</v>
-      </c>
-      <c r="F2" s="16">
-        <v>2</v>
-      </c>
-      <c r="G2" s="16" t="s">
+      <c r="H2" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="K2" s="17" t="s">
         <v>17</v>
-      </c>
-      <c r="H2" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="K2" s="18" t="s">
-        <v>18</v>
       </c>
       <c r="L2" s="1">
         <f>SUM(L3,L4,L5,L6)</f>
@@ -2520,7 +2538,7 @@
       </c>
       <c r="N2" s="1">
         <f>SUM(N3,N4,N5,N6)</f>
-        <v>364</v>
+        <v>393</v>
       </c>
       <c r="O2" s="7">
         <v>298</v>
@@ -2528,38 +2546,34 @@
       <c r="P2" s="6">
         <v>282</v>
       </c>
-      <c r="Q2" s="6">
-        <f>SUM(Q3,Q4,Q5,Q6)</f>
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="15">
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="14">
         <v>2</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="16">
+      <c r="E3" s="15">
         <v>3</v>
       </c>
-      <c r="F3" s="16">
+      <c r="F3" s="15">
         <v>2</v>
       </c>
-      <c r="G3" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="K3" s="18" t="s">
-        <v>17</v>
+      <c r="G3" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="K3" s="17" t="s">
+        <v>16</v>
       </c>
       <c r="L3" s="1">
         <f>SUM(E2:E9)</f>
@@ -2579,38 +2593,34 @@
         <f>P2-N3</f>
         <v>190</v>
       </c>
-      <c r="Q3" s="6">
-        <f>P3-O3</f>
-        <v>-16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="15">
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="14">
         <v>3</v>
       </c>
-      <c r="B4" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="16" t="s">
+      <c r="B4" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="15">
+        <v>21</v>
+      </c>
+      <c r="F4" s="15">
+        <v>1</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="K4" s="17" t="s">
         <v>22</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" s="16">
-        <v>21</v>
-      </c>
-      <c r="F4" s="16">
-        <v>1</v>
-      </c>
-      <c r="G4" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="K4" s="18" t="s">
-        <v>23</v>
       </c>
       <c r="L4" s="1">
         <f>SUM(E10:E18)</f>
@@ -2620,7 +2630,7 @@
         <v>118</v>
       </c>
       <c r="N4" s="1">
-        <v>89</v>
+        <v>118</v>
       </c>
       <c r="O4" s="7">
         <f>O3-M4</f>
@@ -2628,40 +2638,36 @@
       </c>
       <c r="P4" s="6">
         <f>P3-N4</f>
-        <v>101</v>
-      </c>
-      <c r="Q4" s="6">
-        <f>P4-O4</f>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="14">
+        <v>4</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="15">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="15">
-        <v>4</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" s="16">
-        <v>13</v>
-      </c>
-      <c r="F5" s="16">
+      <c r="F5" s="15">
         <v>1</v>
       </c>
-      <c r="G5" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="K5" s="19" t="s">
-        <v>26</v>
+      <c r="G5" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="K5" s="18" t="s">
+        <v>25</v>
       </c>
       <c r="L5" s="3">
         <f>SUM(E19:E23)</f>
@@ -2677,36 +2683,38 @@
         <f>O4-M5</f>
         <v>28</v>
       </c>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="15">
+      <c r="P5" s="6">
+        <f>P4-N5</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="14">
         <v>5</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="15">
+        <v>8</v>
+      </c>
+      <c r="F6" s="15">
+        <v>1</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="K6" s="19" t="s">
         <v>27</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="16">
-        <v>8</v>
-      </c>
-      <c r="F6" s="16">
-        <v>1</v>
-      </c>
-      <c r="G6" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="H6" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="K6" s="20" t="s">
-        <v>28</v>
       </c>
       <c r="L6" s="6">
         <f>SUM(E24:E31)</f>
@@ -2721,659 +2729,816 @@
       <c r="O6" s="8">
         <v>0</v>
       </c>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="15">
+      <c r="P6" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="14">
         <v>6</v>
       </c>
-      <c r="B7" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="16" t="s">
+      <c r="B7" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="15">
+        <v>8</v>
+      </c>
+      <c r="F7" s="15">
+        <v>1</v>
+      </c>
+      <c r="G7" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="16">
-        <v>8</v>
-      </c>
-      <c r="F7" s="16">
-        <v>1</v>
-      </c>
-      <c r="G7" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" s="17" t="s">
-        <v>53</v>
+      <c r="H7" s="16" t="s">
+        <v>52</v>
       </c>
       <c r="K7" s="4"/>
       <c r="O7" s="5"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="15">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="14">
         <v>7</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="E8" s="15">
+        <v>13</v>
+      </c>
+      <c r="F8" s="15">
+        <v>1</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="14">
+        <v>8</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="15">
+        <v>21</v>
+      </c>
+      <c r="F9" s="15">
+        <v>1</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="14">
+        <v>9</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="15">
+        <v>13</v>
+      </c>
+      <c r="F10" s="15">
+        <v>2</v>
+      </c>
+      <c r="G10" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="H10" s="16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="14">
+        <v>10</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="15">
+        <v>13</v>
+      </c>
+      <c r="F11" s="15">
+        <v>2</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="H11" s="16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="14">
+        <v>11</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="15">
+        <v>21</v>
+      </c>
+      <c r="F12" s="15">
+        <v>2</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" s="16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="14">
+        <v>12</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="15">
+        <v>21</v>
+      </c>
+      <c r="F13" s="15">
+        <v>2</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13" s="16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="15">
+        <v>21</v>
+      </c>
+      <c r="F14" s="15">
+        <v>2</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14" s="16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="14">
+        <v>14</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="15">
+        <v>5</v>
+      </c>
+      <c r="F15" s="15">
+        <v>3</v>
+      </c>
+      <c r="G15" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="H15" s="16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="14">
+        <v>15</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="15">
+        <v>3</v>
+      </c>
+      <c r="F16" s="15">
+        <v>3</v>
+      </c>
+      <c r="G16" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="H16" s="16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="14">
+        <v>16</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="15">
+        <v>13</v>
+      </c>
+      <c r="F17" s="15">
+        <v>3</v>
+      </c>
+      <c r="G17" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="H17" s="16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="14">
+        <v>17</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="15">
+        <v>8</v>
+      </c>
+      <c r="F18" s="15">
+        <v>3</v>
+      </c>
+      <c r="G18" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="H18" s="16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="14">
+        <v>18</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19" s="15">
+        <v>21</v>
+      </c>
+      <c r="F19" s="15">
+        <v>2</v>
+      </c>
+      <c r="G19" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="H19" s="16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="14">
+        <v>19</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="15">
+        <v>13</v>
+      </c>
+      <c r="F20" s="15">
+        <v>2</v>
+      </c>
+      <c r="G20" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="H20" s="16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="14">
+        <v>20</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E21" s="15">
+        <v>13</v>
+      </c>
+      <c r="F21" s="15">
+        <v>3</v>
+      </c>
+      <c r="G21" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="H21" s="16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="14">
+        <v>21</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" s="15">
+        <v>5</v>
+      </c>
+      <c r="F22" s="15">
+        <v>3</v>
+      </c>
+      <c r="G22" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="H22" s="16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="14">
+        <v>22</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" s="15">
+        <v>8</v>
+      </c>
+      <c r="F23" s="15">
+        <v>3</v>
+      </c>
+      <c r="G23" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="H23" s="16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="14">
+        <v>23</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" s="15">
+        <v>13</v>
+      </c>
+      <c r="F24" s="15">
+        <v>2</v>
+      </c>
+      <c r="G24" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="H24" s="16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="14">
+        <v>24</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" s="15">
+        <v>13</v>
+      </c>
+      <c r="F25" s="15">
+        <v>1</v>
+      </c>
+      <c r="G25" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="H25" s="16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="14">
+        <v>25</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E26" s="15">
+        <v>21</v>
+      </c>
+      <c r="F26" s="15">
+        <v>2</v>
+      </c>
+      <c r="G26" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="H26" s="16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="14">
+        <v>26</v>
+      </c>
+      <c r="B27" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="E27" s="23">
+        <v>13</v>
+      </c>
+      <c r="F27" s="23">
+        <v>1</v>
+      </c>
+      <c r="G27" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="H27" s="16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="14">
+        <v>28</v>
+      </c>
+      <c r="B28" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E28" s="15">
+        <v>8</v>
+      </c>
+      <c r="F28" s="15">
+        <v>3</v>
+      </c>
+      <c r="G28" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="H28" s="16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="14">
+        <v>29</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E29" s="15">
+        <v>21</v>
+      </c>
+      <c r="F29" s="15">
+        <v>2</v>
+      </c>
+      <c r="G29" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="H29" s="16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="14">
+        <v>30</v>
+      </c>
+      <c r="B30" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="C30" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="D30" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="E30" s="23">
+        <v>13</v>
+      </c>
+      <c r="F30" s="23">
+        <v>2</v>
+      </c>
+      <c r="G30" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="H30" s="16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="14">
         <v>31</v>
       </c>
-      <c r="E8" s="16">
-        <v>13</v>
-      </c>
-      <c r="F8" s="16">
-        <v>1</v>
-      </c>
-      <c r="G8" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" s="17" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="15">
-        <v>8</v>
-      </c>
-      <c r="B9" s="16" t="s">
+      <c r="B31" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C31" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="D31" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="E31" s="23">
+        <v>21</v>
+      </c>
+      <c r="F31" s="23">
+        <v>2</v>
+      </c>
+      <c r="G31" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="H31" s="16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="9">
         <v>32</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="B32" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C32" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D32" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="E32" s="24">
+        <v>21</v>
+      </c>
+      <c r="F32" s="24">
+        <v>2</v>
+      </c>
+      <c r="G32" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="H32" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="9">
         <v>33</v>
       </c>
-      <c r="D9" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="E9" s="16">
-        <v>21</v>
-      </c>
-      <c r="F9" s="16">
-        <v>1</v>
-      </c>
-      <c r="G9" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="H9" s="17" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="15">
-        <v>9</v>
-      </c>
-      <c r="B10" s="16" t="s">
+      <c r="B33" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C33" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D33" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="E33" s="24">
+        <v>21</v>
+      </c>
+      <c r="F33" s="24">
+        <v>2</v>
+      </c>
+      <c r="G33" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="H33" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="9">
         <v>34</v>
       </c>
-      <c r="C10" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="16">
-        <v>13</v>
-      </c>
-      <c r="F10" s="16">
+      <c r="B34" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C34" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D34" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="E34" s="24">
+        <v>21</v>
+      </c>
+      <c r="F34" s="24">
         <v>2</v>
       </c>
-      <c r="G10" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="H10" s="17" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="15">
-        <v>10</v>
-      </c>
-      <c r="B11" s="16" t="s">
+      <c r="G34" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="H34" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="9">
         <v>35</v>
       </c>
-      <c r="C11" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" s="16">
-        <v>13</v>
-      </c>
-      <c r="F11" s="16">
+      <c r="B35" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C35" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D35" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="E35" s="24">
+        <v>21</v>
+      </c>
+      <c r="F35" s="24">
         <v>2</v>
       </c>
-      <c r="G11" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="H11" s="17" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="15">
-        <v>11</v>
-      </c>
-      <c r="B12" s="16" t="s">
+      <c r="G35" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="H35" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="9">
         <v>36</v>
       </c>
-      <c r="C12" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="E12" s="16">
-        <v>21</v>
-      </c>
-      <c r="F12" s="16">
+      <c r="B36" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C36" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D36" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="E36" s="24">
+        <v>21</v>
+      </c>
+      <c r="F36" s="24">
         <v>2</v>
       </c>
-      <c r="G12" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="H12" s="17" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="15">
-        <v>12</v>
-      </c>
-      <c r="B13" s="16" t="s">
+      <c r="G36" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="H36" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="9">
         <v>37</v>
       </c>
-      <c r="C13" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" s="16">
-        <v>21</v>
-      </c>
-      <c r="F13" s="16">
+      <c r="B37" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C37" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D37" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="E37" s="24">
+        <v>21</v>
+      </c>
+      <c r="F37" s="24">
         <v>2</v>
       </c>
-      <c r="G13" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="H13" s="17" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="15">
-        <v>13</v>
-      </c>
-      <c r="B14" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14" s="16">
-        <v>21</v>
-      </c>
-      <c r="F14" s="16">
-        <v>2</v>
-      </c>
-      <c r="G14" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="H14" s="17" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="9">
-        <v>14</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15" s="10">
-        <v>5</v>
-      </c>
-      <c r="F15" s="10">
-        <v>3</v>
-      </c>
-      <c r="G15" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="H15" s="11" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="9">
-        <v>15</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E16" s="10">
-        <v>3</v>
-      </c>
-      <c r="F16" s="10">
-        <v>3</v>
-      </c>
-      <c r="G16" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="H16" s="11" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="9">
-        <v>16</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E17" s="10">
-        <v>13</v>
-      </c>
-      <c r="F17" s="10">
-        <v>3</v>
-      </c>
-      <c r="G17" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="H17" s="11" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="9">
-        <v>17</v>
-      </c>
-      <c r="B18" s="10" t="s">
+      <c r="G37" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="H37" s="10" t="s">
         <v>52</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E18" s="10">
-        <v>8</v>
-      </c>
-      <c r="F18" s="10">
-        <v>3</v>
-      </c>
-      <c r="G18" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="H18" s="11" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="15">
-        <v>18</v>
-      </c>
-      <c r="B19" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="D19" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="E19" s="16">
-        <v>21</v>
-      </c>
-      <c r="F19" s="16">
-        <v>2</v>
-      </c>
-      <c r="G19" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="H19" s="17" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="15">
-        <v>19</v>
-      </c>
-      <c r="B20" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E20" s="16">
-        <v>13</v>
-      </c>
-      <c r="F20" s="16">
-        <v>2</v>
-      </c>
-      <c r="G20" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="H20" s="17" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="15">
-        <v>20</v>
-      </c>
-      <c r="B21" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="D21" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="E21" s="16">
-        <v>13</v>
-      </c>
-      <c r="F21" s="16">
-        <v>3</v>
-      </c>
-      <c r="G21" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="H21" s="17" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="15">
-        <v>21</v>
-      </c>
-      <c r="B22" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="C22" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="D22" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E22" s="16">
-        <v>5</v>
-      </c>
-      <c r="F22" s="16">
-        <v>3</v>
-      </c>
-      <c r="G22" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="H22" s="17" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="15">
-        <v>22</v>
-      </c>
-      <c r="B23" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="C23" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="D23" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E23" s="16">
-        <v>8</v>
-      </c>
-      <c r="F23" s="16">
-        <v>3</v>
-      </c>
-      <c r="G23" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="H23" s="17" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="15">
-        <v>23</v>
-      </c>
-      <c r="B24" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="C24" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="D24" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E24" s="16">
-        <v>13</v>
-      </c>
-      <c r="F24" s="16">
-        <v>2</v>
-      </c>
-      <c r="G24" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="H24" s="17" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="15">
-        <v>24</v>
-      </c>
-      <c r="B25" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="C25" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="D25" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E25" s="16">
-        <v>13</v>
-      </c>
-      <c r="F25" s="16">
-        <v>1</v>
-      </c>
-      <c r="G25" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="H25" s="17" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="15">
-        <v>25</v>
-      </c>
-      <c r="B26" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="C26" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="D26" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="E26" s="16">
-        <v>21</v>
-      </c>
-      <c r="F26" s="16">
-        <v>2</v>
-      </c>
-      <c r="G26" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="H26" s="17" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="15">
-        <v>26</v>
-      </c>
-      <c r="B27" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="C27" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="D27" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="E27" s="24">
-        <v>13</v>
-      </c>
-      <c r="F27" s="24">
-        <v>1</v>
-      </c>
-      <c r="G27" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="H27" s="17" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="15">
-        <v>28</v>
-      </c>
-      <c r="B28" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="C28" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="D28" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E28" s="16">
-        <v>8</v>
-      </c>
-      <c r="F28" s="16">
-        <v>3</v>
-      </c>
-      <c r="G28" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="H28" s="17" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="15">
-        <v>29</v>
-      </c>
-      <c r="B29" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="C29" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="D29" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="E29" s="16">
-        <v>21</v>
-      </c>
-      <c r="F29" s="16">
-        <v>2</v>
-      </c>
-      <c r="G29" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="H29" s="17" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="15">
-        <v>30</v>
-      </c>
-      <c r="B30" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="C30" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="D30" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="E30" s="24">
-        <v>13</v>
-      </c>
-      <c r="F30" s="24">
-        <v>2</v>
-      </c>
-      <c r="G30" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="H30" s="17" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="15">
-        <v>31</v>
-      </c>
-      <c r="B31" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="C31" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="D31" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="E31" s="24">
-        <v>21</v>
-      </c>
-      <c r="F31" s="24">
-        <v>2</v>
-      </c>
-      <c r="G31" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="H31" s="17" t="s">
-        <v>53</v>
       </c>
     </row>
   </sheetData>
